--- a/Jogos_do_Dia/2023-07-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>League</t>
   </si>
@@ -142,40 +142,55 @@
     <t>20:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Arsenal de Sarandí</t>
   </si>
   <si>
     <t>Unión Santa Fe</t>
   </si>
   <si>
+    <t>Estudiantes Mérida</t>
+  </si>
+  <si>
+    <t>Argentinos Juniors</t>
+  </si>
+  <si>
     <t>Sarmiento</t>
   </si>
   <si>
-    <t>Argentinos Juniors</t>
-  </si>
-  <si>
-    <t>Estudiantes Mérida</t>
-  </si>
-  <si>
     <t>Ñublense</t>
   </si>
   <si>
+    <t>Belgrano</t>
+  </si>
+  <si>
+    <t>Huracán</t>
+  </si>
+  <si>
     <t>Defensa y Justicia</t>
   </si>
   <si>
     <t>Boca Juniors</t>
   </si>
   <si>
+    <t>Angostura</t>
+  </si>
+  <si>
+    <t>Instituto</t>
+  </si>
+  <si>
     <t>Talleres Córdoba</t>
   </si>
   <si>
-    <t>Instituto</t>
-  </si>
-  <si>
-    <t>Angostura</t>
-  </si>
-  <si>
     <t>Unión Española</t>
+  </si>
+  <si>
+    <t>Barracas Central</t>
+  </si>
+  <si>
+    <t>Atlético Tucumán</t>
   </si>
 </sst>
 </file>
@@ -537,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,10 +679,10 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G2">
         <v>4.5</v>
@@ -679,16 +694,16 @@
         <v>1.75</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="N2">
         <v>2.2</v>
@@ -709,13 +724,13 @@
         <v>1.75</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W2">
         <v>1.3</v>
@@ -733,28 +748,28 @@
         <v>2.42</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -771,10 +786,10 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>3.2</v>
@@ -786,10 +801,10 @@
         <v>2.38</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>6.28</v>
       </c>
       <c r="L3">
         <v>1.5</v>
@@ -816,13 +831,13 @@
         <v>1.67</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W3">
         <v>1.2</v>
@@ -840,33 +855,33 @@
         <v>2.72</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
         <v>45113</v>
@@ -875,22 +890,22 @@
         <v>40</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G4">
-        <v>3.7</v>
+        <v>1.99</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>3.09</v>
       </c>
       <c r="I4">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -905,22 +920,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.25</v>
+        <v>1.76</v>
       </c>
       <c r="O4">
-        <v>1.57</v>
+        <v>1.92</v>
       </c>
       <c r="P4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -932,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1.8</v>
+        <v>0.88</v>
       </c>
       <c r="Y4">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="Z4">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AA4">
-        <v>2.95</v>
+        <v>3.09</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -985,10 +1000,10 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G5">
         <v>1.87</v>
@@ -1000,10 +1015,10 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>7.61</v>
       </c>
       <c r="L5">
         <v>1.5</v>
@@ -1030,13 +1045,13 @@
         <v>1.57</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W5">
         <v>2</v>
@@ -1054,33 +1069,33 @@
         <v>3.11</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG5">
         <v>2.1</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2">
         <v>45113</v>
@@ -1089,100 +1104,100 @@
         <v>40</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X6">
-        <v>0.88</v>
+        <v>1.8</v>
       </c>
       <c r="Y6">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="Z6">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AA6">
-        <v>3.09</v>
+        <v>2.95</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1199,37 +1214,37 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G7">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="H7">
-        <v>3.3</v>
+        <v>3.61</v>
       </c>
       <c r="I7">
-        <v>3.5</v>
+        <v>3.57</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N7">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="O7">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="P7">
         <v>1.4</v>
@@ -1244,13 +1259,13 @@
         <v>1.91</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="W7">
         <v>1.25</v>
@@ -1277,19 +1292,233 @@
         <v>2.05</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2.9</v>
+      </c>
+      <c r="I8">
+        <v>3.6</v>
+      </c>
+      <c r="J8">
+        <v>1.08</v>
+      </c>
+      <c r="K8">
+        <v>7.29</v>
+      </c>
+      <c r="L8">
+        <v>1.54</v>
+      </c>
+      <c r="M8">
+        <v>2.48</v>
+      </c>
+      <c r="N8">
+        <v>2.35</v>
+      </c>
+      <c r="O8">
+        <v>1.53</v>
+      </c>
+      <c r="P8">
+        <v>1.57</v>
+      </c>
+      <c r="Q8">
+        <v>2.25</v>
+      </c>
+      <c r="R8">
+        <v>2.2</v>
+      </c>
+      <c r="S8">
+        <v>1.62</v>
+      </c>
+      <c r="T8">
+        <v>1.25</v>
+      </c>
+      <c r="U8">
+        <v>1.28</v>
+      </c>
+      <c r="V8">
+        <v>1.8</v>
+      </c>
+      <c r="W8">
+        <v>2.1</v>
+      </c>
+      <c r="X8">
+        <v>0.8</v>
+      </c>
+      <c r="Y8">
+        <v>1.25</v>
+      </c>
+      <c r="Z8">
+        <v>1.19</v>
+      </c>
+      <c r="AA8">
+        <v>2.44</v>
+      </c>
+      <c r="AB8">
+        <v>1.75</v>
+      </c>
+      <c r="AC8">
+        <v>7</v>
+      </c>
+      <c r="AD8">
+        <v>2.6</v>
+      </c>
+      <c r="AE8">
+        <v>1.32</v>
+      </c>
+      <c r="AF8">
+        <v>1.6</v>
+      </c>
+      <c r="AG8">
+        <v>2</v>
+      </c>
+      <c r="AH8">
+        <v>2.8</v>
+      </c>
+      <c r="AI8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>2.1</v>
+      </c>
+      <c r="H9">
+        <v>2.87</v>
+      </c>
+      <c r="I9">
+        <v>3.4</v>
+      </c>
+      <c r="J9">
+        <v>1.09</v>
+      </c>
+      <c r="K9">
+        <v>6.83</v>
+      </c>
+      <c r="L9">
+        <v>1.5</v>
+      </c>
+      <c r="M9">
+        <v>2.45</v>
+      </c>
+      <c r="N9">
+        <v>2.5</v>
+      </c>
+      <c r="O9">
+        <v>1.45</v>
+      </c>
+      <c r="P9">
+        <v>1.57</v>
+      </c>
+      <c r="Q9">
+        <v>2.25</v>
+      </c>
+      <c r="R9">
+        <v>2.2</v>
+      </c>
+      <c r="S9">
+        <v>1.62</v>
+      </c>
+      <c r="T9">
+        <v>1.29</v>
+      </c>
+      <c r="U9">
+        <v>1.34</v>
+      </c>
+      <c r="V9">
+        <v>1.65</v>
+      </c>
+      <c r="W9">
+        <v>1.3</v>
+      </c>
+      <c r="X9">
+        <v>0.73</v>
+      </c>
+      <c r="Y9">
+        <v>1.49</v>
+      </c>
+      <c r="Z9">
+        <v>1.3</v>
+      </c>
+      <c r="AA9">
+        <v>2.79</v>
+      </c>
+      <c r="AB9">
+        <v>1.68</v>
+      </c>
+      <c r="AC9">
+        <v>7</v>
+      </c>
+      <c r="AD9">
+        <v>2.75</v>
+      </c>
+      <c r="AE9">
+        <v>1.32</v>
+      </c>
+      <c r="AF9">
+        <v>1.6</v>
+      </c>
+      <c r="AG9">
+        <v>2.05</v>
+      </c>
+      <c r="AH9">
+        <v>2.8</v>
+      </c>
+      <c r="AI9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-07-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -151,15 +151,15 @@
     <t>Unión Santa Fe</t>
   </si>
   <si>
+    <t>Sarmiento</t>
+  </si>
+  <si>
     <t>Estudiantes Mérida</t>
   </si>
   <si>
     <t>Argentinos Juniors</t>
   </si>
   <si>
-    <t>Sarmiento</t>
-  </si>
-  <si>
     <t>Ñublense</t>
   </si>
   <si>
@@ -175,13 +175,13 @@
     <t>Boca Juniors</t>
   </si>
   <si>
+    <t>Talleres Córdoba</t>
+  </si>
+  <si>
     <t>Angostura</t>
   </si>
   <si>
     <t>Instituto</t>
-  </si>
-  <si>
-    <t>Talleres Córdoba</t>
   </si>
   <si>
     <t>Unión Española</t>
@@ -881,7 +881,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
         <v>45113</v>
@@ -890,7 +890,7 @@
         <v>40</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -899,96 +899,96 @@
         <v>53</v>
       </c>
       <c r="G4">
-        <v>1.99</v>
+        <v>3.7</v>
       </c>
       <c r="H4">
-        <v>3.09</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N4">
-        <v>1.76</v>
+        <v>2.25</v>
       </c>
       <c r="O4">
-        <v>1.92</v>
+        <v>1.57</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X4">
-        <v>0.88</v>
+        <v>1.8</v>
       </c>
       <c r="Y4">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="Z4">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AA4">
-        <v>3.09</v>
+        <v>2.95</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2">
         <v>45113</v>
@@ -997,7 +997,7 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
@@ -1006,91 +1006,91 @@
         <v>54</v>
       </c>
       <c r="G5">
-        <v>1.87</v>
+        <v>2.29</v>
       </c>
       <c r="H5">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>2.95</v>
       </c>
       <c r="J5">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K5">
-        <v>7.61</v>
+        <v>7.5</v>
       </c>
       <c r="L5">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="M5">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>2.46</v>
+        <v>1.74</v>
       </c>
       <c r="O5">
-        <v>1.46</v>
+        <v>2.09</v>
       </c>
       <c r="P5">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="Q5">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="R5">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="T5">
-        <v>1.15</v>
+        <v>1.34</v>
       </c>
       <c r="U5">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="V5">
-        <v>2.1</v>
+        <v>1.58</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.7</v>
+        <v>0.88</v>
       </c>
       <c r="Y5">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="Z5">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="AA5">
-        <v>3.11</v>
+        <v>3.09</v>
       </c>
       <c r="AB5">
-        <v>1.64</v>
+        <v>2.03</v>
       </c>
       <c r="AC5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD5">
-        <v>2.67</v>
+        <v>2.27</v>
       </c>
       <c r="AE5">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AF5">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AG5">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AH5">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AI5">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1113,91 +1113,91 @@
         <v>55</v>
       </c>
       <c r="G6">
-        <v>3.7</v>
+        <v>1.87</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I6">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="J6">
         <v>1.07</v>
       </c>
       <c r="K6">
-        <v>7.92</v>
+        <v>7.61</v>
       </c>
       <c r="L6">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="M6">
+        <v>2.45</v>
+      </c>
+      <c r="N6">
+        <v>2.46</v>
+      </c>
+      <c r="O6">
+        <v>1.46</v>
+      </c>
+      <c r="P6">
+        <v>1.57</v>
+      </c>
+      <c r="Q6">
+        <v>2.25</v>
+      </c>
+      <c r="R6">
+        <v>2.25</v>
+      </c>
+      <c r="S6">
+        <v>1.57</v>
+      </c>
+      <c r="T6">
+        <v>1.15</v>
+      </c>
+      <c r="U6">
+        <v>1.29</v>
+      </c>
+      <c r="V6">
+        <v>2.1</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>0.7</v>
+      </c>
+      <c r="Y6">
+        <v>1.87</v>
+      </c>
+      <c r="Z6">
+        <v>1.24</v>
+      </c>
+      <c r="AA6">
+        <v>3.11</v>
+      </c>
+      <c r="AB6">
+        <v>1.64</v>
+      </c>
+      <c r="AC6">
+        <v>8</v>
+      </c>
+      <c r="AD6">
+        <v>2.67</v>
+      </c>
+      <c r="AE6">
+        <v>1.27</v>
+      </c>
+      <c r="AF6">
+        <v>1.5</v>
+      </c>
+      <c r="AG6">
+        <v>2.1</v>
+      </c>
+      <c r="AH6">
         <v>2.75</v>
       </c>
-      <c r="N6">
-        <v>2.25</v>
-      </c>
-      <c r="O6">
-        <v>1.57</v>
-      </c>
-      <c r="P6">
-        <v>1.5</v>
-      </c>
-      <c r="Q6">
-        <v>2.5</v>
-      </c>
-      <c r="R6">
-        <v>1.95</v>
-      </c>
-      <c r="S6">
-        <v>1.8</v>
-      </c>
-      <c r="T6">
-        <v>1.68</v>
-      </c>
-      <c r="U6">
-        <v>1.33</v>
-      </c>
-      <c r="V6">
-        <v>1.28</v>
-      </c>
-      <c r="W6">
-        <v>1.5</v>
-      </c>
-      <c r="X6">
-        <v>1.8</v>
-      </c>
-      <c r="Y6">
-        <v>1.59</v>
-      </c>
-      <c r="Z6">
-        <v>1.36</v>
-      </c>
-      <c r="AA6">
-        <v>2.95</v>
-      </c>
-      <c r="AB6">
-        <v>2.9</v>
-      </c>
-      <c r="AC6">
-        <v>7.5</v>
-      </c>
-      <c r="AD6">
-        <v>1.6</v>
-      </c>
-      <c r="AE6">
-        <v>1.23</v>
-      </c>
-      <c r="AF6">
-        <v>1.44</v>
-      </c>
-      <c r="AG6">
-        <v>1.8</v>
-      </c>
-      <c r="AH6">
-        <v>2.35</v>
-      </c>
       <c r="AI6">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1220,13 +1220,13 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="H7">
-        <v>3.61</v>
+        <v>2.89</v>
       </c>
       <c r="I7">
-        <v>3.57</v>
+        <v>6.73</v>
       </c>
       <c r="J7">
         <v>1.04</v>
@@ -1241,10 +1241,10 @@
         <v>3.4</v>
       </c>
       <c r="N7">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>1.97</v>
+        <v>1.78</v>
       </c>
       <c r="P7">
         <v>1.4</v>
